--- a/biology/Médecine/Hydrogène_arsénié_(maladie_professionnelle)/Hydrogène_arsénié_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Hydrogène_arsénié_(maladie_professionnelle)/Hydrogène_arsénié_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hydrog%C3%A8ne_ars%C3%A9ni%C3%A9_(maladie_professionnelle)</t>
+          <t>Hydrogène_arsénié_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une intoxication par l'hydrogène arsénié (ou trihydrure d'arsenic) est une maladie professionnelle, reconnue en France sous certaines conditions.
 Cet article relève du domaine de la législation sur la protection sociale ; il revêt un caractère davantage juridique que médical.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hydrog%C3%A8ne_ars%C3%A9ni%C3%A9_(maladie_professionnelle)</t>
+          <t>Hydrogène_arsénié_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,17 +526,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Données professionnelles
-Le trihydrure d'arsenic est utilisé dans l'industrie des composants électroniques pour le dopage des semi-conducteurs, ainsi que dans la chimie organique de synthèse.
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hydrogène_arsénié_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrog%C3%A8ne_ars%C3%A9ni%C3%A9_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le trihydrure d'arsenic est utilisé dans l'industrie des composants électroniques pour le dopage des semi-conducteurs, ainsi que dans la chimie organique de synthèse.
 De nombreuses opérations industrielles peuvent occasionner le dégagement d'hydrogène arsénié :
 traitement de minerais arsenicaux ou de minerais contenant des impuretés d'arsenic (zinc surtout, mais également cuivre, étain ou plomb) ;
 fonderies de métaux ferreux, fonderies d'étain et de zinc, électrolyse, etc. ;
 détartrage acide de chaudières ;
 bronze d'art (traitement de pièces métalliques dans des solutions acides contenant de l'arsenic) ;
-restauration de peintures contenant des pigments arsenicaux.
-Données médicales
-Le dihydrure d'arsenic est absorbé essentiellement par inhalation et pénètre par diffusion passive dans les poumons.
+restauration de peintures contenant des pigments arsenicaux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hydrogène_arsénié_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrog%C3%A8ne_ars%C3%A9ni%C3%A9_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dihydrure d'arsenic est absorbé essentiellement par inhalation et pénètre par diffusion passive dans les poumons.
 Il se concentre surtout dans le sang, le foie, les poumons, les reins et est éliminé dans les urines.
 Le trihydrure d'arsenic est un gaz très toxique par inhalation ou même par contamination cutanée et qui peut être à l'origine d'intoxications mortelles. Il se lie à l'hémoglobine, entraînant une hémolyse et une anémie aiguë.
 La toxicité est principalement hématologique et rénale (insuffisance rénale aiguë par hémoglobinurie) mais aussi neurologique et pulmonaire.
